--- a/Cyber Portfolio Template.xlsx
+++ b/Cyber Portfolio Template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E340A86-6B07-4444-A7E3-A27B903173E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A253AC-662D-4465-9C39-7B5971B0BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
   <si>
     <t>Certification Tracker</t>
   </si>
@@ -51,7 +52,10 @@
     <t>Exam Cost</t>
   </si>
   <si>
-    <t>Renew Date</t>
+    <t>Last Renew Date</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
   </si>
   <si>
     <t>Days Remaining</t>
@@ -166,7 +170,7 @@
     <t>Insert a Visual Roadmap of Your Choice. Below are examples but use whatever you want!</t>
   </si>
   <si>
-    <t>Courses to Take</t>
+    <t>Course and CPE Tracker</t>
   </si>
   <si>
     <t>Course Name</t>
@@ -193,6 +197,9 @@
     <t>Completion Date</t>
   </si>
   <si>
+    <t>Link to Cert/CPE Proof</t>
+  </si>
+  <si>
     <t>IBM Threat Intelligence</t>
   </si>
   <si>
@@ -227,6 +234,12 @@
   </si>
   <si>
     <t>General Cyber</t>
+  </si>
+  <si>
+    <t>Black Hat Conf CPEs</t>
+  </si>
+  <si>
+    <t>BlackHat</t>
   </si>
   <si>
     <t>Total CPEs</t>
@@ -484,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -493,50 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -546,44 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -603,28 +539,6 @@
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -765,6 +679,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2F75B5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2F75B5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2F75B5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -807,9 +780,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -826,209 +796,212 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1037,7 +1010,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{B419ADA9-4759-44AE-91CF-041A0A158CDA}"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="102">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1375,6 +1348,10 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
@@ -1445,6 +1422,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1875,6 +1910,26 @@
       </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2018,6 +2073,26 @@
     <dxf>
       <font>
         <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2159,7 +2234,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>313709</xdr:colOff>
+      <xdr:colOff>266084</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>94214</xdr:rowOff>
     </xdr:to>
@@ -2206,7 +2281,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>742291</xdr:colOff>
+      <xdr:colOff>618466</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>91609</xdr:rowOff>
     </xdr:to>
@@ -2295,59 +2370,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81FECA8-D26C-4940-AEC4-71B2C8756DD0}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41C681D5-F896-44BD-B926-65FA7044BED6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9305925"/>
-          <a:ext cx="17402175" cy="8248650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>933450</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2368,7 +2396,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,80 +2413,131 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56F0B87-A5D6-EF92-5CEE-882A5C251C82}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AE84BE23-5CC4-4509-A1C5-B47BCCB344FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5191125"/>
+          <a:ext cx="16992600" cy="8143875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FDF93A2A-E7D2-43C7-B3E3-2840450C88AE}" name="Table6" displayName="Table6" ref="A2:K9" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" tableBorderDxfId="90">
-  <autoFilter ref="A2:K9" xr:uid="{FDF93A2A-E7D2-43C7-B3E3-2840450C88AE}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{144E2649-A019-4BCC-B714-658682089819}" name="Certification" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{281A5456-86E5-4B21-B3D7-F906BC44DB72}" name="Organization" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{2614C0E4-BD76-4B72-84AD-7D3630158BFF}" name="Award Date" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{1999931B-068D-4BAD-9E46-C533E89DF897}" name="Exam Cost" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{11456F03-2FCD-40CA-8788-F3904CBB9B60}" name="Renew Date" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{8637D3AC-EA6C-4B41-999D-B34E1AECD377}" name="Days Remaining" dataDxfId="84">
-      <calculatedColumnFormula>IF(E3="N/A", "Does Not Expire", IF(E3="","",IF(E3&lt;&gt;"N/A", _xlfn.DAYS(E3, TODAY()))))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FDF93A2A-E7D2-43C7-B3E3-2840450C88AE}" name="Table6" displayName="Table6" ref="A2:L9" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
+  <autoFilter ref="A2:L9" xr:uid="{FDF93A2A-E7D2-43C7-B3E3-2840450C88AE}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{144E2649-A019-4BCC-B714-658682089819}" name="Certification" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{281A5456-86E5-4B21-B3D7-F906BC44DB72}" name="Organization" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{2614C0E4-BD76-4B72-84AD-7D3630158BFF}" name="Award Date" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{1999931B-068D-4BAD-9E46-C533E89DF897}" name="Exam Cost" dataDxfId="91"/>
+    <tableColumn id="12" xr3:uid="{F67D20D2-E7FF-42A2-9DFB-3C45C836743D}" name="Last Renew Date" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{11456F03-2FCD-40CA-8788-F3904CBB9B60}" name="Expire Date" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{8637D3AC-EA6C-4B41-999D-B34E1AECD377}" name="Days Remaining" dataDxfId="88">
+      <calculatedColumnFormula>IF(F3="N/A", "Does Not Expire", IF(F3="","",IF(F3&lt;&gt;"N/A", _xlfn.DAYS(F3, TODAY()))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{72760E70-1F41-4F83-81C9-C95FBDA1E0D2}" name="Renewal Method" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{0F7DE9FE-A942-4853-B913-31B88893E9F5}" name="CPEs Required" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{9DB7ACA8-547F-4106-A5D1-B3600810F487}" name="Renewal Cost" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{61CA2D0C-38E0-4B9B-B89D-9855ED75F4CD}" name="Status" dataDxfId="80" dataCellStyle="Bad">
-      <calculatedColumnFormula>IF(OR(F3&gt;0,F3="Does Not Expire"),"Active", "Expired")</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{72760E70-1F41-4F83-81C9-C95FBDA1E0D2}" name="Renewal Method" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{0F7DE9FE-A942-4853-B913-31B88893E9F5}" name="CPEs Required" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{9DB7ACA8-547F-4106-A5D1-B3600810F487}" name="Renewal Cost" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{61CA2D0C-38E0-4B9B-B89D-9855ED75F4CD}" name="Status" dataDxfId="84" dataCellStyle="Bad">
+      <calculatedColumnFormula>IF(OR(G3&gt;0,G3="Does Not Expire"),"Active", "Expired")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{48B7E667-B4E3-4FCA-A1F6-77F5EAE4E1B5}" name="Comments" dataDxfId="79" dataCellStyle="Bad"/>
+    <tableColumn id="11" xr3:uid="{48B7E667-B4E3-4FCA-A1F6-77F5EAE4E1B5}" name="Comments" dataDxfId="83" dataCellStyle="Bad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FB8E978-2C5D-42AF-B558-CC109ED5D7DC}" name="Table2" displayName="Table2" ref="A11:K16" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
-  <autoFilter ref="A11:K16" xr:uid="{7FB8E978-2C5D-42AF-B558-CC109ED5D7DC}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3E28B390-9E2C-4A19-8168-01FFDE0A09D7}" name="Desired Certification" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{7624B629-5315-4B97-8EB7-30EA90D87A2F}" name="Organization" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{CD0ACD1B-A662-4C08-B7A0-0360D1CE3151}" name="Want Date" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{B959C7F7-C507-4B99-A510-B742A6CAAA5E}" name="Exam Cost" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{F0A1AADF-3A8B-4945-9722-03F33F336CB4}" name="Renew Date" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{D7A3F419-FB8D-4974-B2F0-97DD8A9428F8}" name="Days Remaining" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{C156C2DE-B0E8-409C-BB19-A3D24C58A32F}" name="Renewal Method" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{6F753EEA-461B-4617-9695-7983B70882DE}" name="CPEs Required" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{224C2BB1-9F51-443E-925E-B9258EB8A9BE}" name="Renew Cost" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{9BBDDBBD-CA0B-4FE0-A66F-5F27AB16EA10}" name="Status" dataDxfId="66" dataCellStyle="Bad"/>
-    <tableColumn id="11" xr3:uid="{EA66801D-72F7-45B4-8B5B-7F21ED0DC03F}" name="Comments" dataDxfId="65" dataCellStyle="Bad"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FB8E978-2C5D-42AF-B558-CC109ED5D7DC}" name="Table2" displayName="Table2" ref="A11:L16" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80">
+  <autoFilter ref="A11:L16" xr:uid="{7FB8E978-2C5D-42AF-B558-CC109ED5D7DC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3E28B390-9E2C-4A19-8168-01FFDE0A09D7}" name="Desired Certification" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{7624B629-5315-4B97-8EB7-30EA90D87A2F}" name="Organization" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{CD0ACD1B-A662-4C08-B7A0-0360D1CE3151}" name="Want Date" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{B959C7F7-C507-4B99-A510-B742A6CAAA5E}" name="Exam Cost" dataDxfId="76"/>
+    <tableColumn id="12" xr3:uid="{998EFA98-E573-4B9A-AD43-3A0620A77F0C}" name="Last Renew Date" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{F0A1AADF-3A8B-4945-9722-03F33F336CB4}" name="Expire Date" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{D7A3F419-FB8D-4974-B2F0-97DD8A9428F8}" name="Days Remaining" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{C156C2DE-B0E8-409C-BB19-A3D24C58A32F}" name="Renewal Method" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{6F753EEA-461B-4617-9695-7983B70882DE}" name="CPEs Required" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{224C2BB1-9F51-443E-925E-B9258EB8A9BE}" name="Renew Cost" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{9BBDDBBD-CA0B-4FE0-A66F-5F27AB16EA10}" name="Status" dataDxfId="69" dataCellStyle="Bad"/>
+    <tableColumn id="11" xr3:uid="{EA66801D-72F7-45B4-8B5B-7F21ED0DC03F}" name="Comments" dataDxfId="68" dataCellStyle="Bad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04CB6C44-F7BA-43EB-9777-8667669BEC6B}" name="Table7" displayName="Table7" ref="A2:J12" totalsRowCount="1" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
-  <autoFilter ref="A2:J11" xr:uid="{04CB6C44-F7BA-43EB-9777-8667669BEC6B}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FA5C8BEF-1EFF-405E-90B3-2E4CDE9C8A57}" name="Course Name" totalsRowLabel="Total CPEs" dataDxfId="57" totalsRowDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{6ED94C6C-7FBA-4F97-939D-CC62AE6734F3}" name="Provider" dataDxfId="55" totalsRowDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{876D0278-D6C1-4418-BBC3-E355577C448C}" name="Skills Gained" dataDxfId="53" totalsRowDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{9BA1D2CE-FE35-41E0-BE39-0895E7860763}" name="CPE Amount" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{04CB6C44-F7BA-43EB-9777-8667669BEC6B}" name="Table7" displayName="Table7" ref="A2:K12" totalsRowCount="1" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+  <autoFilter ref="A2:K11" xr:uid="{04CB6C44-F7BA-43EB-9777-8667669BEC6B}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{FA5C8BEF-1EFF-405E-90B3-2E4CDE9C8A57}" name="Course Name" totalsRowLabel="Total CPEs" dataDxfId="60" totalsRowDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{6ED94C6C-7FBA-4F97-939D-CC62AE6734F3}" name="Provider" dataDxfId="58" totalsRowDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{876D0278-D6C1-4418-BBC3-E355577C448C}" name="Skills Gained" dataDxfId="56" totalsRowDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{9BA1D2CE-FE35-41E0-BE39-0895E7860763}" name="CPE Amount" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="55">
       <totalsRowFormula>SUBTOTAL(109,D3:D11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33B5D35A-17C6-4F5B-B268-9911B3B92BA3}" name="CPE Org" dataDxfId="49" totalsRowDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{F1F5AC3C-B526-4053-98E5-FD4ED59CC5CB}" name="Cost" dataDxfId="47" totalsRowDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{EEAE1164-35D0-44C6-A41E-22F086F0D937}" name="Start Date" dataDxfId="45" totalsRowDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{857F32E6-AEF1-4E77-A592-BF5A035532AB}" name="Status" dataDxfId="43" totalsRowDxfId="44" dataCellStyle="Bad" totalsRowCellStyle="Bad"/>
-    <tableColumn id="8" xr3:uid="{729D8108-AC3B-4FF1-AF11-197C4BF5D93F}" name="Completion Date" dataDxfId="41" totalsRowDxfId="42" dataCellStyle="Bad" totalsRowCellStyle="Bad"/>
-    <tableColumn id="9" xr3:uid="{B19D67E5-7342-44E7-9C01-B8A5EEC62820}" name="Comments" dataDxfId="39" totalsRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{33B5D35A-17C6-4F5B-B268-9911B3B92BA3}" name="CPE Org" dataDxfId="52" totalsRowDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{F1F5AC3C-B526-4053-98E5-FD4ED59CC5CB}" name="Cost" dataDxfId="50" totalsRowDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{EEAE1164-35D0-44C6-A41E-22F086F0D937}" name="Start Date" dataDxfId="48" totalsRowDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{857F32E6-AEF1-4E77-A592-BF5A035532AB}" name="Status" dataDxfId="46" totalsRowDxfId="47" dataCellStyle="Bad" totalsRowCellStyle="Bad"/>
+    <tableColumn id="8" xr3:uid="{729D8108-AC3B-4FF1-AF11-197C4BF5D93F}" name="Completion Date" dataDxfId="44" totalsRowDxfId="45" dataCellStyle="Bad" totalsRowCellStyle="Bad"/>
+    <tableColumn id="11" xr3:uid="{32038017-75F1-4C15-88CA-92F0F6CB47CB}" name="Link to Cert/CPE Proof" dataDxfId="42" totalsRowDxfId="43" dataCellStyle="Bad"/>
+    <tableColumn id="9" xr3:uid="{B19D67E5-7342-44E7-9C01-B8A5EEC62820}" name="Comments" dataDxfId="40" totalsRowDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{96EED32A-A3A9-4CAE-8F02-C230ED86D46B}" name="Table8" displayName="Table8" ref="A2:F9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A2:F9" xr:uid="{96EED32A-A3A9-4CAE-8F02-C230ED86D46B}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A5673538-A6D5-42A3-BD59-7FA90B369D1B}" name="Cyber Organization" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{5BDE4D46-6824-4783-9F23-B3CEE9AB9CD4}" name="Chapter" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{96EED32A-A3A9-4CAE-8F02-C230ED86D46B}" name="Table8" displayName="Table8" ref="A2:G9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A2:G9" xr:uid="{96EED32A-A3A9-4CAE-8F02-C230ED86D46B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A5673538-A6D5-42A3-BD59-7FA90B369D1B}" name="Cyber Organization" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{5BDE4D46-6824-4783-9F23-B3CEE9AB9CD4}" name="Chapter" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{DE08F3D4-2D54-4DD4-84AA-2BDFB0A86654}" name="Start Date" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{011BCDF3-5126-4441-A12D-0D1FF4D8507D}" name="Renewal Date" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{9D2ECB95-1D91-43DD-AB1E-8C98A3A3CBFC}" name="Cost" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{8856324B-3111-41D5-8F6D-12F4392E2236}" name="Status" dataDxfId="30" dataCellStyle="Bad"/>
@@ -2771,8 +2850,8 @@
   </sheetPr>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A17:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="F54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2781,14 +2860,14 @@
     <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="54" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" style="2" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" style="2" customWidth="1"/>
@@ -2810,552 +2889,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
       <c r="M1" s="3"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:19" ht="16.5">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="84" t="s">
+        <v>12</v>
+      </c>
       <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="39">
+        <v>14</v>
+      </c>
+      <c r="C3" s="23">
         <v>44004</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="24">
         <v>381</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
         <v>45099</v>
       </c>
-      <c r="F3" s="8">
-        <f ca="1">IF(E3="N/A", "Does Not Expire", IF(E3="","",IF(E3&lt;&gt;"N/A", _xlfn.DAYS(E3, TODAY()))))</f>
-        <v>446</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="8">
+        <f ca="1">IF(F3="N/A", "Does Not Expire", IF(F3="","",IF(F3&lt;&gt;"N/A", _xlfn.DAYS(F3, TODAY()))))</f>
+        <v>187</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8">
         <v>60</v>
       </c>
-      <c r="I3" s="40">
+      <c r="J3" s="24">
         <v>150</v>
       </c>
-      <c r="J3" s="41" t="str">
-        <f ca="1">IF(OR(F3&gt;0,F3="Does Not Expire"),"Active", "Expired")</f>
+      <c r="K3" s="25" t="str">
+        <f ca="1">IF(OR(G3&gt;0,G3="Does Not Expire"),"Active", "Expired")</f>
         <v>Active</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="39">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23">
         <v>43227</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="24">
         <v>381</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <v>45053</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" ca="1" si="0">IF(E4="N/A", "Does Not Expire", IF(E4="","",IF(E4&lt;&gt;"N/A", _xlfn.DAYS(E4, TODAY()))))</f>
-        <v>400</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G9" ca="1" si="0">IF(F4="N/A", "Does Not Expire", IF(F4="","",IF(F4&lt;&gt;"N/A", _xlfn.DAYS(F4, TODAY()))))</f>
+        <v>141</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8">
         <v>50</v>
       </c>
-      <c r="I4" s="40">
+      <c r="J4" s="24">
         <v>150</v>
       </c>
-      <c r="J4" s="41" t="str">
-        <f t="shared" ref="J4:J9" ca="1" si="1">IF(OR(F4&gt;0,F4="Does Not Expire"),"Active", "Expired")</f>
+      <c r="K4" s="25" t="str">
+        <f t="shared" ref="K4:K9" ca="1" si="1">IF(OR(G4&gt;0,G4="Does Not Expire"),"Active", "Expired")</f>
         <v>Active</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="30">
+    <row r="5" spans="1:19" ht="30.75">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="39">
+        <v>19</v>
+      </c>
+      <c r="C5" s="23">
         <v>44576</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="24">
         <v>350</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
         <v>45672</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1019</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8">
+        <v>760</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8">
         <v>90</v>
       </c>
-      <c r="I5" s="40">
+      <c r="J5" s="24">
         <v>150</v>
       </c>
-      <c r="J5" s="41" t="str">
+      <c r="K5" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Active</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="30">
+    <row r="6" spans="1:19" ht="30.75">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="39">
+        <v>21</v>
+      </c>
+      <c r="C6" s="23">
         <v>44632</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="24">
         <v>99</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <v>45728</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1075</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="8">
+        <v>816</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="40">
+      <c r="J6" s="24">
         <v>99</v>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="K6" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Active</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="30">
+    <row r="7" spans="1:19" ht="30.75">
       <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23">
+        <v>44211</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
+        <v>44941</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="39">
-        <v>44211</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="I7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="39">
-        <v>44941</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>288</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="J7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="41" t="str">
+      <c r="K7" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Active</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="30">
+    <row r="8" spans="1:19" ht="30.75">
       <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="44">
+      <c r="C8" s="28">
         <v>43809</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
         <v>44540</v>
       </c>
-      <c r="F8" s="8">
-        <f ca="1">IF(E8="N/A", "Does Not Expire", IF(E8="","",IF(E8&lt;&gt;"N/A", _xlfn.DAYS(E8, TODAY()))))</f>
-        <v>-113</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="8">
+        <f ca="1">IF(F8="N/A", "Does Not Expire", IF(F8="","",IF(F8&lt;&gt;"N/A", _xlfn.DAYS(F8, TODAY()))))</f>
+        <v>-372</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="40">
+      <c r="J8" s="24">
         <v>0</v>
       </c>
-      <c r="J8" s="41" t="str">
+      <c r="K8" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Expired</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="39">
+        <v>27</v>
+      </c>
+      <c r="C9" s="23">
         <v>43591</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="24">
         <v>0</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8" t="str">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Does Not Expire</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="H9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="40">
+      <c r="J9" s="24">
         <v>0</v>
       </c>
-      <c r="J9" s="41" t="str">
+      <c r="K9" s="85" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Active</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" ht="24" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="A10" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75">
-      <c r="A11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:19" ht="16.5">
+      <c r="A11" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="I11" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="L11" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>32</v>
+      <c r="A12" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+        <v>2023</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>36</v>
+      <c r="A14" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+        <v>2024</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="33" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>38</v>
+      <c r="A15" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8">
-        <v>2023</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="3"/>
+        <v>2024</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="26"/>
       <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>40</v>
+      <c r="A16" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8">
-        <v>2024</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="3"/>
+        <v>2025</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="26"/>
       <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="S16" s="2"/>
@@ -3365,92 +3462,92 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="1"/>
     </row>
     <row r="19" spans="1:30" ht="19.5">
-      <c r="A19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
+      <c r="A19" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
     </row>
     <row r="28" spans="1:30">
       <c r="J28" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="K32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="57"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="57"/>
+      <c r="K32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="L3:N6"/>
+    <mergeCell ref="M3:O6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A10:L10"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:K9">
-    <cfRule type="containsText" dxfId="96" priority="7" operator="containsText" text="Active">
-      <formula>NOT(ISERROR(SEARCH("Active",J3)))</formula>
+  <conditionalFormatting sqref="K3:L9">
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Active">
+      <formula>NOT(ISERROR(SEARCH("Active",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K9">
-    <cfRule type="containsText" dxfId="95" priority="6" operator="containsText" text="Expired">
-      <formula>NOT(ISERROR(SEARCH("Expired",J3)))</formula>
+  <conditionalFormatting sqref="K3:L9">
+    <cfRule type="containsText" dxfId="100" priority="6" operator="containsText" text="Expired">
+      <formula>NOT(ISERROR(SEARCH("Expired",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J16">
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+  <conditionalFormatting sqref="K12:K16">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J16">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
+  <conditionalFormatting sqref="K12:K16">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G9 G12:G16" xr:uid="{50CDE887-3CB5-4B28-9D0A-B0F025BC9C57}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H9 H12:H16" xr:uid="{50CDE887-3CB5-4B28-9D0A-B0F025BC9C57}">
       <formula1>"N/A, CPEs, Retake, Pay"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J16" xr:uid="{55D9443E-CED9-48D1-8DE3-56319046AA32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K16" xr:uid="{55D9443E-CED9-48D1-8DE3-56319046AA32}">
       <formula1>"In Progress, Planned"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3469,10 +3566,10 @@
   <sheetPr>
     <tabColor rgb="FFF8CBAD"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A3:J11"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3486,252 +3583,275 @@
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:11" ht="23.25">
+      <c r="A1" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45.75">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="40">
+      <c r="F3" s="24">
         <v>0</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="23">
         <v>44632</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="40">
+      <c r="F4" s="24">
         <v>0</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="23">
         <v>44215</v>
       </c>
-      <c r="H4" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="59">
+      <c r="H4" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="42">
         <v>44224</v>
       </c>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+      <c r="J4" s="42"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="40">
+      <c r="F5" s="24">
         <v>0</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="D6" s="8">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="10">
         <f>SUBTOTAL(109,D3:D11)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3752,149 +3872,160 @@
   <sheetPr>
     <tabColor rgb="FFD0CECE"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="66" t="s">
+    <row r="1" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="67">
+        <v>73</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="43">
         <v>44957</v>
       </c>
-      <c r="D3" s="68">
+      <c r="E3" s="44">
         <v>105</v>
       </c>
-      <c r="E3" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="70"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="67">
+      <c r="C4" s="72"/>
+      <c r="D4" s="43">
         <v>45102</v>
       </c>
-      <c r="D4" s="68">
+      <c r="E4" s="44">
         <v>125</v>
       </c>
-      <c r="E4" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="68">
+        <v>73</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="44">
         <v>0</v>
       </c>
-      <c r="E5" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="71"/>
-      <c r="E6" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="72"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="71"/>
-      <c r="E7" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="72"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="71"/>
-      <c r="E8" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="72"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="71"/>
-      <c r="E9" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="72"/>
+      <c r="F5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="F6" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="F7" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="F8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="F9" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E9">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="Active">
-      <formula>NOT(ISERROR(SEARCH("Active",E3)))</formula>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Active">
+      <formula>NOT(ISERROR(SEARCH("Active",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="Expired">
-      <formula>NOT(ISERROR(SEARCH("Expired",E3)))</formula>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="Expired">
+      <formula>NOT(ISERROR(SEARCH("Expired",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{155A2558-0E9F-46C2-AB3F-1835F66F7A30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F9" xr:uid="{155A2558-0E9F-46C2-AB3F-1835F66F7A30}">
       <formula1>"Active, Expired"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3913,7 +4044,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="A1:XFD1048576"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3930,188 +4061,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="A1" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="76" t="s">
+      <c r="A2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="77" t="s">
+      <c r="F2" s="21" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40">
+        <v>81</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24">
         <v>10</v>
       </c>
-      <c r="F3" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="34" t="s">
-        <v>78</v>
+      <c r="F3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="39">
+        <v>85</v>
+      </c>
+      <c r="D4" s="23">
         <v>44617</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="24">
         <v>0</v>
       </c>
-      <c r="F4" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="39">
+        <v>88</v>
+      </c>
+      <c r="D5" s="23">
         <v>44460</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="24">
         <v>35</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="59">
+      <c r="F5" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="42">
         <v>44470</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="80">
+      <c r="A6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="53">
         <v>0</v>
       </c>
-      <c r="F6" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="34"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="34"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="34"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="34"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="34"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="34"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="34"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="34"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="34"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4152,7 +4283,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4172,199 +4303,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="A1" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="A2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="G2" s="21" t="s">
         <v>11</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="48">
+        <v>98</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="32">
         <v>12</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="23">
         <v>44635</v>
       </c>
-      <c r="G3" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="48">
+        <v>102</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="32">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="E5" s="32">
         <v>12.45</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="23">
         <v>43929</v>
       </c>
-      <c r="G5" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="59">
+      <c r="G5" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="42">
         <v>43969</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="34"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="34"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="34"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="34"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="34"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="34"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4401,18 +4532,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4621,11 +4752,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE76470A-E931-43E1-ACC3-57E30BCBA291}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BED4F88-E343-4B6D-9F62-ED9B2E7FD915}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BED4F88-E343-4B6D-9F62-ED9B2E7FD915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE76470A-E931-43E1-ACC3-57E30BCBA291}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
